--- a/Modulo 4 - Mais tópicos de edição e formatação/exercicio-proposto-formas-e-mais-RESOLVIDO.xlsx
+++ b/Modulo 4 - Mais tópicos de edição e formatação/exercicio-proposto-formas-e-mais-RESOLVIDO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Google Drive\Curso_Excel\04 Mais tópicos de edição e formatação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarketTi\Desktop\Curso-Excel\Modulo 4 - Mais tópicos de edição e formatação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1132FA02-2C54-437B-8553-6696A881215C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083EBE0F-674F-4095-9054-2988D01C17CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{577FF42C-7BF9-4221-89DA-19DFED16051F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{577FF42C-7BF9-4221-89DA-19DFED16051F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -612,19 +612,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,20 +1001,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA12EE-B87F-48BA-832A-3D93EFD54D11}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7265625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1034,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1052,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1066,7 +1068,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1088,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1102,7 +1104,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1122,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1138,7 +1140,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1148,7 +1150,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1164,7 +1166,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1180,7 +1182,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1196,7 +1198,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1212,7 +1214,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1228,7 +1230,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1244,7 +1246,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1260,7 +1262,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1276,7 +1278,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1286,7 +1288,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1296,7 +1298,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1306,7 +1308,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1316,7 +1318,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1326,7 +1328,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1336,7 +1338,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1352,7 +1354,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1368,7 +1370,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1384,7 +1386,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1400,8 +1402,8 @@
       <c r="N27" s="6"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:B4"/>
@@ -1425,20 +1427,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40184BB7-798B-438B-B719-128CF0B843D4}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7265625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1458,8 +1462,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+    <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="55" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="22"/>
@@ -1476,36 +1480,36 @@
       <c r="N3" s="22"/>
       <c r="O3" s="23"/>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
+    <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="55"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="55" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
       <c r="O4" s="23"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22"/>
-      <c r="D5" s="59"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1534,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52"/>
       <c r="C6" s="22"/>
       <c r="D6" s="35">
@@ -1548,7 +1552,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1572,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52"/>
       <c r="C8" s="22"/>
       <c r="D8" s="36">
@@ -1586,7 +1590,7 @@
       <c r="N8" s="32"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="22"/>
       <c r="D9" s="36">
@@ -1604,7 +1608,7 @@
       <c r="N9" s="32"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="22"/>
       <c r="D10" s="36">
@@ -1622,7 +1626,7 @@
       <c r="N10" s="32"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
       <c r="D11" s="36">
@@ -1640,7 +1644,7 @@
       <c r="N11" s="32"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20"/>
       <c r="C12" s="22"/>
       <c r="D12" s="36">
@@ -1658,7 +1662,7 @@
       <c r="N12" s="32"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20"/>
       <c r="C13" s="22"/>
       <c r="D13" s="36">
@@ -1676,7 +1680,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20"/>
       <c r="C14" s="22"/>
       <c r="D14" s="36">
@@ -1694,7 +1698,7 @@
       <c r="N14" s="32"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="C15" s="22"/>
       <c r="D15" s="36">
@@ -1712,7 +1716,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="C16" s="22"/>
       <c r="D16" s="36">
@@ -1730,7 +1734,7 @@
       <c r="N16" s="32"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="C17" s="22"/>
       <c r="D17" s="36">
@@ -1748,7 +1752,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="22"/>
       <c r="D18" s="36">
@@ -1766,7 +1770,7 @@
       <c r="N18" s="32"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="22"/>
       <c r="D19" s="36">
@@ -1784,7 +1788,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="22"/>
       <c r="D20" s="36">
@@ -1802,7 +1806,7 @@
       <c r="N20" s="32"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="C21" s="22"/>
       <c r="D21" s="36">
@@ -1820,7 +1824,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="C22" s="22"/>
       <c r="D22" s="36">
@@ -1838,7 +1842,7 @@
       <c r="N22" s="32"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="22"/>
       <c r="D23" s="36">
@@ -1856,7 +1860,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="C24" s="22"/>
       <c r="D24" s="36">
@@ -1874,7 +1878,7 @@
       <c r="N24" s="32"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="C25" s="22"/>
       <c r="D25" s="36">
@@ -1892,7 +1896,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="22"/>
       <c r="D26" s="37">
@@ -1910,7 +1914,7 @@
       <c r="N26" s="34"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -1926,19 +1930,19 @@
       <c r="N27" s="24"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5:B6" location="Estoques!A1" display="Estoques" xr:uid="{CE5DAB24-5C24-4CDE-8E48-1695A6480453}"/>
@@ -1958,18 +1962,18 @@
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7265625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
@@ -2007,7 +2011,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="23"/>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52"/>
       <c r="C4" s="22"/>
       <c r="D4" s="38"/>
@@ -2023,8 +2027,8 @@
       <c r="N4" s="38"/>
       <c r="O4" s="23"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22"/>
@@ -2041,8 +2045,8 @@
       <c r="N5" s="38"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
+    <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="55"/>
       <c r="C6" s="22"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -2057,7 +2061,7 @@
       <c r="N6" s="38"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2079,7 @@
       <c r="N7" s="38"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52"/>
       <c r="C8" s="22"/>
       <c r="D8" s="38"/>
@@ -2091,7 +2095,7 @@
       <c r="N8" s="38"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="22"/>
       <c r="D9" s="38"/>
@@ -2107,7 +2111,7 @@
       <c r="N9" s="38"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="22"/>
       <c r="D10" s="38"/>
@@ -2123,7 +2127,7 @@
       <c r="N10" s="38"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
       <c r="D11" s="38"/>
@@ -2139,7 +2143,7 @@
       <c r="N11" s="38"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20"/>
       <c r="C12" s="22"/>
       <c r="D12" s="38"/>
@@ -2155,7 +2159,7 @@
       <c r="N12" s="38"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20"/>
       <c r="C13" s="22"/>
       <c r="D13" s="38"/>
@@ -2171,7 +2175,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20"/>
       <c r="C14" s="22"/>
       <c r="D14" s="38"/>
@@ -2187,7 +2191,7 @@
       <c r="N14" s="38"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="C15" s="22"/>
       <c r="D15" s="38"/>
@@ -2203,7 +2207,7 @@
       <c r="N15" s="38"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="C16" s="22"/>
       <c r="D16" s="38"/>
@@ -2219,7 +2223,7 @@
       <c r="N16" s="38"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="C17" s="22"/>
       <c r="D17" s="38"/>
@@ -2235,7 +2239,7 @@
       <c r="N17" s="38"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="22"/>
       <c r="D18" s="38"/>
@@ -2251,7 +2255,7 @@
       <c r="N18" s="38"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="22"/>
       <c r="D19" s="38"/>
@@ -2267,7 +2271,7 @@
       <c r="N19" s="38"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="22"/>
       <c r="D20" s="38"/>
@@ -2283,7 +2287,7 @@
       <c r="N20" s="38"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="C21" s="22"/>
       <c r="D21" s="38"/>
@@ -2299,7 +2303,7 @@
       <c r="N21" s="38"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="C22" s="22"/>
       <c r="D22" s="38"/>
@@ -2315,7 +2319,7 @@
       <c r="N22" s="38"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="22"/>
       <c r="D23" s="38"/>
@@ -2331,7 +2335,7 @@
       <c r="N23" s="38"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="C24" s="22"/>
       <c r="D24" s="38"/>
@@ -2347,7 +2351,7 @@
       <c r="N24" s="38"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="C25" s="22"/>
       <c r="D25" s="38"/>
@@ -2363,7 +2367,7 @@
       <c r="N25" s="38"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="22"/>
       <c r="D26" s="38"/>
@@ -2379,7 +2383,7 @@
       <c r="N26" s="38"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -2395,8 +2399,8 @@
       <c r="N27" s="24"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B5:B6"/>
@@ -2420,18 +2424,18 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7265625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
@@ -2469,7 +2473,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="23"/>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52"/>
       <c r="C4" s="22"/>
       <c r="D4" s="38"/>
@@ -2489,7 +2493,7 @@
       <c r="N4" s="38"/>
       <c r="O4" s="23"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>5</v>
       </c>
@@ -2523,7 +2527,7 @@
       <c r="N5" s="38"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52"/>
       <c r="C6" s="22"/>
       <c r="D6" s="38"/>
@@ -2541,8 +2545,8 @@
       <c r="N6" s="38"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+    <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="22"/>
@@ -2561,8 +2565,8 @@
       <c r="N7" s="38"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
+    <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
       <c r="C8" s="22"/>
       <c r="D8" s="38"/>
       <c r="E8" s="49" t="s">
@@ -2579,7 +2583,7 @@
       <c r="N8" s="38"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="22"/>
       <c r="D9" s="38"/>
@@ -2595,7 +2599,7 @@
       <c r="N9" s="38"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="22"/>
       <c r="D10" s="38"/>
@@ -2611,7 +2615,7 @@
       <c r="N10" s="38"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
       <c r="D11" s="38"/>
@@ -2627,7 +2631,7 @@
       <c r="N11" s="38"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20"/>
       <c r="C12" s="22"/>
       <c r="D12" s="38"/>
@@ -2643,7 +2647,7 @@
       <c r="N12" s="38"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20"/>
       <c r="C13" s="22"/>
       <c r="D13" s="38"/>
@@ -2659,7 +2663,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20"/>
       <c r="C14" s="22"/>
       <c r="D14" s="38"/>
@@ -2675,7 +2679,7 @@
       <c r="N14" s="38"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="C15" s="22"/>
       <c r="D15" s="38"/>
@@ -2691,7 +2695,7 @@
       <c r="N15" s="38"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="C16" s="22"/>
       <c r="D16" s="38"/>
@@ -2707,7 +2711,7 @@
       <c r="N16" s="38"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="C17" s="22"/>
       <c r="D17" s="38"/>
@@ -2723,7 +2727,7 @@
       <c r="N17" s="38"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="22"/>
       <c r="D18" s="38"/>
@@ -2739,7 +2743,7 @@
       <c r="N18" s="38"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="22"/>
       <c r="D19" s="38"/>
@@ -2755,7 +2759,7 @@
       <c r="N19" s="38"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="22"/>
       <c r="D20" s="38"/>
@@ -2771,7 +2775,7 @@
       <c r="N20" s="38"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="C21" s="22"/>
       <c r="D21" s="38"/>
@@ -2787,7 +2791,7 @@
       <c r="N21" s="38"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="C22" s="22"/>
       <c r="D22" s="38"/>
@@ -2803,7 +2807,7 @@
       <c r="N22" s="38"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="22"/>
       <c r="D23" s="38"/>
@@ -2819,7 +2823,7 @@
       <c r="N23" s="38"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="C24" s="22"/>
       <c r="D24" s="38"/>
@@ -2835,7 +2839,7 @@
       <c r="N24" s="38"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="C25" s="22"/>
       <c r="D25" s="38"/>
@@ -2851,7 +2855,7 @@
       <c r="N25" s="38"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="22"/>
       <c r="D26" s="38"/>
@@ -2867,7 +2871,7 @@
       <c r="N26" s="38"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -2883,8 +2887,8 @@
       <c r="N27" s="24"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:B4"/>
